--- a/teaching/traditional_assets/database/data/canada/canada_computers_peripherals.xlsx
+++ b/teaching/traditional_assets/database/data/canada/canada_computers_peripherals.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.138</v>
+        <v>-0.206</v>
       </c>
       <c r="G2">
-        <v>-0.515447991761071</v>
+        <v>-0.186267845003399</v>
       </c>
       <c r="H2">
-        <v>-0.51956745623069</v>
+        <v>-0.1869476546566961</v>
       </c>
       <c r="I2">
-        <v>-0.5883141684808482</v>
+        <v>-0.5152957171991842</v>
       </c>
       <c r="J2">
-        <v>-0.5883141684808482</v>
+        <v>-0.5152957171991842</v>
       </c>
       <c r="K2">
-        <v>-2.934</v>
+        <v>-1.438</v>
       </c>
       <c r="L2">
-        <v>-1.51081359423275</v>
+        <v>-0.4887831407205983</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.08599999999999999</v>
+        <v>0.06599999999999999</v>
       </c>
       <c r="V2">
-        <v>0.07439446366782006</v>
+        <v>0.007440811724915445</v>
       </c>
       <c r="W2">
-        <v>0.9560709892813213</v>
+        <v>-0.8879588229177499</v>
       </c>
       <c r="X2">
-        <v>0.1921348212190721</v>
+        <v>0.07104865067219132</v>
       </c>
       <c r="Y2">
-        <v>0.7639361680622492</v>
+        <v>-0.9590074735899412</v>
       </c>
       <c r="Z2">
-        <v>3.350987990270908</v>
+        <v>5.046312178387651</v>
       </c>
       <c r="AA2">
-        <v>0.2364480507987505</v>
+        <v>0.01713756368689201</v>
       </c>
       <c r="AB2">
-        <v>0.08522126943691993</v>
+        <v>0.06870152172747139</v>
       </c>
       <c r="AC2">
-        <v>0.1512267813618307</v>
+        <v>-0.05156395804057945</v>
       </c>
       <c r="AD2">
-        <v>0.641</v>
+        <v>0.521</v>
       </c>
       <c r="AE2">
-        <v>0.2675305759490353</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.9085305759490354</v>
+        <v>0.521</v>
       </c>
       <c r="AG2">
-        <v>0.8225305759490354</v>
+        <v>0.455</v>
       </c>
       <c r="AH2">
-        <v>0.4400664182613991</v>
+        <v>0.0554786497710574</v>
       </c>
       <c r="AI2">
-        <v>0.9701024176689307</v>
+        <v>-1.106157112526539</v>
       </c>
       <c r="AJ2">
-        <v>0.415728008425897</v>
+        <v>0.04879356568364612</v>
       </c>
       <c r="AK2">
-        <v>0.9670793728153075</v>
+        <v>-0.8472998137802609</v>
       </c>
       <c r="AL2">
-        <v>0.039</v>
+        <v>0.03</v>
       </c>
       <c r="AM2">
-        <v>0.039</v>
+        <v>0.02</v>
       </c>
       <c r="AN2">
-        <v>-1.003129890453834</v>
+        <v>-0.4846511627906976</v>
       </c>
       <c r="AO2">
-        <v>-33.33333333333334</v>
+        <v>-50.53333333333334</v>
       </c>
       <c r="AP2">
-        <v>-1.287215298824782</v>
+        <v>-0.4232558139534883</v>
       </c>
       <c r="AQ2">
-        <v>-33.33333333333334</v>
+        <v>-75.80000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.138</v>
+        <v>-0.206</v>
       </c>
       <c r="G3">
-        <v>-0.5776699029126213</v>
+        <v>-1.004132231404959</v>
       </c>
       <c r="H3">
-        <v>-0.5970873786407768</v>
+        <v>-1.012396694214876</v>
       </c>
       <c r="I3">
-        <v>-0.4254494266419739</v>
+        <v>-1.636363636363636</v>
       </c>
       <c r="J3">
-        <v>-0.4254494266419739</v>
+        <v>-1.636363636363636</v>
       </c>
       <c r="K3">
-        <v>-0.244</v>
+        <v>-0.388</v>
       </c>
       <c r="L3">
-        <v>-0.5922330097087379</v>
+        <v>-1.603305785123967</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -764,70 +764,70 @@
         <v>-0.02</v>
       </c>
       <c r="V3">
-        <v>-0.02136752136752137</v>
+        <v>-0.01282051282051282</v>
       </c>
       <c r="W3">
-        <v>2.904761904761905</v>
+        <v>1.190184049079755</v>
       </c>
       <c r="X3">
-        <v>0.09164639557652388</v>
+        <v>0.07250438929973226</v>
       </c>
       <c r="Y3">
-        <v>2.813115509185381</v>
+        <v>1.117679659780022</v>
       </c>
       <c r="Z3">
-        <v>-4.499084730784605</v>
+        <v>-0.7908496732026143</v>
       </c>
       <c r="AA3">
-        <v>1.91413301912597</v>
+        <v>1.294117647058824</v>
       </c>
       <c r="AB3">
-        <v>0.08894593093562202</v>
+        <v>0.06730946866450967</v>
       </c>
       <c r="AC3">
-        <v>1.825187088190348</v>
+        <v>1.226808178394314</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.179</v>
       </c>
       <c r="AE3">
-        <v>0.04142581888246628</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.04142581888246628</v>
+        <v>0.179</v>
       </c>
       <c r="AG3">
-        <v>0.06142581888246627</v>
+        <v>0.199</v>
       </c>
       <c r="AH3">
-        <v>0.0423825707098982</v>
+        <v>0.1029327199539965</v>
       </c>
       <c r="AI3">
-        <v>-0.1455712486627757</v>
+        <v>-0.3968957871396895</v>
       </c>
       <c r="AJ3">
-        <v>0.06158434814860603</v>
+        <v>0.1131324616259238</v>
       </c>
       <c r="AK3">
-        <v>-0.2321686062601045</v>
+        <v>-0.4617169373549883</v>
       </c>
       <c r="AL3">
-        <v>0.002</v>
+        <v>0.014</v>
       </c>
       <c r="AM3">
-        <v>0.002</v>
+        <v>0.014</v>
       </c>
       <c r="AN3">
-        <v>-0</v>
+        <v>-0.4578005115089513</v>
       </c>
       <c r="AO3">
-        <v>-105</v>
+        <v>-28.28571428571428</v>
       </c>
       <c r="AP3">
-        <v>-0.345088870126215</v>
+        <v>-0.5089514066496164</v>
       </c>
       <c r="AQ3">
-        <v>-105</v>
+        <v>-28.28571428571428</v>
       </c>
     </row>
     <row r="4">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="G4">
-        <v>-0.4986928104575163</v>
+        <v>-0.112962962962963</v>
       </c>
       <c r="H4">
-        <v>-0.4986928104575163</v>
+        <v>-0.112962962962963</v>
       </c>
       <c r="I4">
-        <v>-0.6321705564792901</v>
+        <v>-0.4148148148148148</v>
       </c>
       <c r="J4">
-        <v>-0.6321705564792901</v>
+        <v>-0.4148148148148148</v>
       </c>
       <c r="K4">
-        <v>-2.69</v>
+        <v>-1.05</v>
       </c>
       <c r="L4">
-        <v>-1.758169934640523</v>
+        <v>-0.3888888888888889</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -886,73 +886,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.106</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="V4">
-        <v>0.4818181818181818</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="W4">
-        <v>-0.992619926199262</v>
+        <v>-2.966101694915254</v>
       </c>
       <c r="X4">
-        <v>0.2926232468616203</v>
+        <v>0.06959291204465037</v>
       </c>
       <c r="Y4">
-        <v>-1.285243173060882</v>
+        <v>-3.035694606959905</v>
       </c>
       <c r="Z4">
-        <v>2.279822909746167</v>
+        <v>3.037120359955006</v>
       </c>
       <c r="AA4">
-        <v>-1.441236917528469</v>
+        <v>-1.25984251968504</v>
       </c>
       <c r="AB4">
-        <v>0.08149660793821786</v>
+        <v>0.07009357479043311</v>
       </c>
       <c r="AC4">
-        <v>-1.522733525466686</v>
+        <v>-1.329936094475473</v>
       </c>
       <c r="AD4">
-        <v>0.641</v>
+        <v>0.342</v>
       </c>
       <c r="AE4">
-        <v>0.226104757066569</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.8671047570665691</v>
+        <v>0.342</v>
       </c>
       <c r="AG4">
-        <v>0.7611047570665691</v>
+        <v>0.256</v>
       </c>
       <c r="AH4">
-        <v>0.7976275988400184</v>
+        <v>0.0446941975953999</v>
       </c>
       <c r="AI4">
-        <v>0.7100985824914763</v>
+        <v>-17.10000000000003</v>
       </c>
       <c r="AJ4">
-        <v>0.7757629871678701</v>
+        <v>0.03383558022733281</v>
       </c>
       <c r="AK4">
-        <v>0.6825410368338451</v>
+        <v>-2.415094339622642</v>
       </c>
       <c r="AL4">
-        <v>0.037</v>
+        <v>0.016</v>
       </c>
       <c r="AM4">
-        <v>0.037</v>
+        <v>0.006</v>
       </c>
       <c r="AN4">
-        <v>-1.390455531453362</v>
+        <v>-0.5</v>
       </c>
       <c r="AO4">
-        <v>-29.45945945945946</v>
+        <v>-70</v>
       </c>
       <c r="AP4">
-        <v>-1.650986457845052</v>
+        <v>-0.3742690058479532</v>
       </c>
       <c r="AQ4">
-        <v>-29.45945945945946</v>
+        <v>-186.6666666666667</v>
       </c>
     </row>
   </sheetData>
